--- a/biology/Histoire de la zoologie et de la botanique/Charles_Thorold_Wood/Charles_Thorold_Wood.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Thorold_Wood/Charles_Thorold_Wood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Thorold Wood est un ornithologue britannique, né le 15 juin 1777 et mort le 13 mars 1852.
 Il est le fils aîné de Willoughby Wood d’Alford, dans le Lincolnshire. Il est l’auteur de The Ornithological Guide (1835).
